--- a/Tasks/Прогресс решения задач.xlsx
+++ b/Tasks/Прогресс решения задач.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ladomitory\Users\Ladomitory\Informatic\olympic.nsu.ru\Programming_repeat course(trans from ru)\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F8D3B6-D27D-450D-871D-D8507FDC7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6D944-9781-4FAD-A312-627CC0D56408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0B739F30-1A30-40F5-81B9-C7FAA511493A}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -684,7 +683,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -981,14 +980,14 @@
       <c r="I12" s="21"/>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12" s="5">
         <v>30</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1116,7 +1115,7 @@
       <c r="H17" s="15"/>
       <c r="J17" s="14">
         <f>SUM(J4:J16)</f>
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="K17" s="15">
         <f>SUM(K4:K16)</f>
@@ -1124,7 +1123,7 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>96.458333333333329</v>
+        <v>98.541666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks/Прогресс решения задач.xlsx
+++ b/Tasks/Прогресс решения задач.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ladomitory\Users\Ladomitory\Informatic\olympic.nsu.ru\Programming_repeat course(trans from ru)\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6D944-9781-4FAD-A312-627CC0D56408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9369BB7-975C-4B12-996F-DD0DF4F3EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0B739F30-1A30-40F5-81B9-C7FAA511493A}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="19"/>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J16" si="0">SUM(D4:I4)</f>
+        <f>SUM(D4:H4)</f>
         <v>40</v>
       </c>
       <c r="K4" s="2">
@@ -770,8 +770,8 @@
         <v>10</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J16" si="0">SUM(D5:H5)</f>
         <v>50</v>
       </c>
       <c r="K5" s="5">
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="12">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1085,23 +1085,23 @@
         <v>10</v>
       </c>
       <c r="F16" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
         <v>4</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" s="5">
         <v>40</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       <c r="H17" s="15"/>
       <c r="J17" s="14">
         <f>SUM(J4:J16)</f>
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K17" s="15">
         <f>SUM(K4:K16)</f>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>98.541666666666671</v>
+        <v>98.75</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks/Прогресс решения задач.xlsx
+++ b/Tasks/Прогресс решения задач.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ladomitory\Users\Ladomitory\Informatic\olympic.nsu.ru\Programming_repeat course(trans from ru)\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9369BB7-975C-4B12-996F-DD0DF4F3EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59138A9A-E51F-40B6-B427-BD376FAD01A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0B739F30-1A30-40F5-81B9-C7FAA511493A}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,20 +1088,20 @@
         <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="22"/>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K16" s="5">
         <v>40</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       <c r="H17" s="15"/>
       <c r="J17" s="14">
         <f>SUM(J4:J16)</f>
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K17" s="15">
         <f>SUM(K4:K16)</f>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>98.75</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
